--- a/DesignerConfigs/Datas/test/test_json2.xlsx
+++ b/DesignerConfigs/Datas/test/test_json2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF03E1-E0D4-4C17-AD2A-F3BA99344CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBA2B2-7875-4584-9398-615C7208942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29475" yWindow="1245" windowWidth="26100" windowHeight="14850" xr2:uid="{FAECF1B5-7D45-4431-B390-20DC26EF066D}"/>
+    <workbookView xWindow="39630" yWindow="3135" windowWidth="23385" windowHeight="11670" xr2:uid="{FAECF1B5-7D45-4431-B390-20DC26EF066D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2;2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +48,22 @@
   </si>
   <si>
     <t>abc,5|defg,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1&amp;sep=;,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2&amp;sep=,;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3&amp;sep=,;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4&amp;sep=,|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,11 +431,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
@@ -450,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -467,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -484,16 +485,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/test_json2.xlsx
+++ b/DesignerConfigs/Datas/test/test_json2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBA2B2-7875-4584-9398-615C7208942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8F183-98F1-4498-BA0C-786A6FD758D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39630" yWindow="3135" windowWidth="23385" windowHeight="11670" xr2:uid="{FAECF1B5-7D45-4431-B390-20DC26EF066D}"/>
+    <workbookView xWindow="32265" yWindow="3285" windowWidth="25335" windowHeight="12915" xr2:uid="{FAECF1B5-7D45-4431-B390-20DC26EF066D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,43 +27,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2;2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2;3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc,1;efg,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc,5|defg,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1&amp;sep=;,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2&amp;sep=,;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3&amp;sep=,;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4&amp;sep=,|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2;2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2;3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc,1;efg,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc,5|defg,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1&amp;sep=;,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2&amp;sep=,;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3&amp;sep=,;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m4&amp;sep=,|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAA005C-CACE-4AD5-9ABC-59041D9DA8F2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,58 +443,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
